--- a/data/ministry_of_wealthy.xlsx
+++ b/data/ministry_of_wealthy.xlsx
@@ -19,11 +19,11 @@
     <sheet state="hidden" name="1603" sheetId="14" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="Z_5804EDD8_8BCD_4F0F_8CB9_F8433076EEA7_.wvu.FilterData">'confirmed-new(old)'!$A$1:$S$34</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_004F9F6B_FE3C_405D_AAB0_B0B5C010EFC8_.wvu.FilterData">'confirmed-new(old)'!$A$1:$S$34</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{5804EDD8-8BCD-4F0F-8CB9-F8433076EEA7}" name="Filtro 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{004F9F6B-FE3C-405D-AAB0-B0B5C010EFC8}" name="Filtro 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -225,16 +225,16 @@
     <t>PR</t>
   </si>
   <si>
+    <t>Santa Catarina</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
     <t>Rio Grande do Sul</t>
   </si>
   <si>
     <t>RS</t>
-  </si>
-  <si>
-    <t>Santa Catarina</t>
-  </si>
-  <si>
-    <t>SC</t>
   </si>
   <si>
     <t>Sul</t>
@@ -243,10 +243,16 @@
     <t>(S)</t>
   </si>
   <si>
-    <t>Distrito Federal</t>
+    <t>Mato Grosso do Sul</t>
   </si>
   <si>
-    <t>DF</t>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Mato Grosso</t>
+  </si>
+  <si>
+    <t>MT</t>
   </si>
   <si>
     <t>Goiás</t>
@@ -255,16 +261,10 @@
     <t>GO</t>
   </si>
   <si>
-    <t>Mato Grosso</t>
+    <t>Distrito Federal</t>
   </si>
   <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>Mato Grosso do Sul</t>
-  </si>
-  <si>
-    <t>MS</t>
+    <t>DF</t>
   </si>
   <si>
     <t>Centro-Oeste</t>
@@ -761,16 +761,16 @@
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1114,11 +1114,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2081183525"/>
-        <c:axId val="308030401"/>
+        <c:axId val="10238901"/>
+        <c:axId val="1763188214"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2081183525"/>
+        <c:axId val="10238901"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1160,10 +1160,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308030401"/>
+        <c:crossAx val="1763188214"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="308030401"/>
+        <c:axId val="1763188214"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1232,7 +1232,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2081183525"/>
+        <c:crossAx val="10238901"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1522,11 +1522,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="646787609"/>
-        <c:axId val="147410139"/>
+        <c:axId val="2098649679"/>
+        <c:axId val="924121804"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="646787609"/>
+        <c:axId val="2098649679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1568,10 +1568,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147410139"/>
+        <c:crossAx val="924121804"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147410139"/>
+        <c:axId val="924121804"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1640,7 +1640,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="646787609"/>
+        <c:crossAx val="2098649679"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1840,11 +1840,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="497637163"/>
-        <c:axId val="2060914649"/>
+        <c:axId val="1047861666"/>
+        <c:axId val="126746586"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="497637163"/>
+        <c:axId val="1047861666"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1886,10 +1886,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2060914649"/>
+        <c:crossAx val="126746586"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2060914649"/>
+        <c:axId val="126746586"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1958,7 +1958,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497637163"/>
+        <c:crossAx val="1047861666"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2135,11 +2135,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="900866953"/>
-        <c:axId val="868519441"/>
+        <c:axId val="782076850"/>
+        <c:axId val="1883614895"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="900866953"/>
+        <c:axId val="782076850"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2181,10 +2181,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="868519441"/>
+        <c:crossAx val="1883614895"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="868519441"/>
+        <c:axId val="1883614895"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2253,7 +2253,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="900866953"/>
+        <c:crossAx val="782076850"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2543,11 +2543,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1662452904"/>
-        <c:axId val="215864978"/>
+        <c:axId val="1570731161"/>
+        <c:axId val="1478897989"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1662452904"/>
+        <c:axId val="1570731161"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2589,10 +2589,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215864978"/>
+        <c:crossAx val="1478897989"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215864978"/>
+        <c:axId val="1478897989"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2661,7 +2661,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1662452904"/>
+        <c:crossAx val="1570731161"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2861,11 +2861,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="780544544"/>
-        <c:axId val="2115152842"/>
+        <c:axId val="183772956"/>
+        <c:axId val="1111321624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="780544544"/>
+        <c:axId val="183772956"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2907,10 +2907,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2115152842"/>
+        <c:crossAx val="1111321624"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115152842"/>
+        <c:axId val="1111321624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2979,7 +2979,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="780544544"/>
+        <c:crossAx val="183772956"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3156,11 +3156,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1948575947"/>
-        <c:axId val="736353799"/>
+        <c:axId val="65731609"/>
+        <c:axId val="152813739"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1948575947"/>
+        <c:axId val="65731609"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3202,10 +3202,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="736353799"/>
+        <c:crossAx val="152813739"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="736353799"/>
+        <c:axId val="152813739"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3274,7 +3274,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1948575947"/>
+        <c:crossAx val="65731609"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3474,11 +3474,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="893481259"/>
-        <c:axId val="835057565"/>
+        <c:axId val="771160524"/>
+        <c:axId val="425189078"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="893481259"/>
+        <c:axId val="771160524"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3520,10 +3520,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835057565"/>
+        <c:crossAx val="425189078"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="835057565"/>
+        <c:axId val="425189078"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3592,7 +3592,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="893481259"/>
+        <c:crossAx val="771160524"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3792,11 +3792,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="975140993"/>
-        <c:axId val="346566768"/>
+        <c:axId val="77919884"/>
+        <c:axId val="559326331"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="975140993"/>
+        <c:axId val="77919884"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3838,10 +3838,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346566768"/>
+        <c:crossAx val="559326331"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="346566768"/>
+        <c:axId val="559326331"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3910,7 +3910,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="975140993"/>
+        <c:crossAx val="77919884"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4241,11 +4241,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1328888728"/>
-        <c:axId val="406800915"/>
+        <c:axId val="1475014068"/>
+        <c:axId val="1120778092"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1328888728"/>
+        <c:axId val="1475014068"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4287,10 +4287,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406800915"/>
+        <c:crossAx val="1120778092"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="406800915"/>
+        <c:axId val="1120778092"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4359,7 +4359,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1328888728"/>
+        <c:crossAx val="1475014068"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4657,11 +4657,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="716649320"/>
-        <c:axId val="2101178206"/>
+        <c:axId val="860702274"/>
+        <c:axId val="912768937"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="716649320"/>
+        <c:axId val="860702274"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4703,10 +4703,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101178206"/>
+        <c:crossAx val="912768937"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101178206"/>
+        <c:axId val="912768937"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4775,7 +4775,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="716649320"/>
+        <c:crossAx val="860702274"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4930,11 +4930,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1565745771"/>
-        <c:axId val="1179765157"/>
+        <c:axId val="1357370480"/>
+        <c:axId val="2005150992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1565745771"/>
+        <c:axId val="1357370480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4976,10 +4976,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1179765157"/>
+        <c:crossAx val="2005150992"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1179765157"/>
+        <c:axId val="2005150992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5048,7 +5048,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1565745771"/>
+        <c:crossAx val="1357370480"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5508,11 +5508,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="990644973"/>
-        <c:axId val="823928797"/>
+        <c:axId val="1036078962"/>
+        <c:axId val="1029210309"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="990644973"/>
+        <c:axId val="1036078962"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5554,10 +5554,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="823928797"/>
+        <c:crossAx val="1029210309"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="823928797"/>
+        <c:axId val="1029210309"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5626,7 +5626,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="990644973"/>
+        <c:crossAx val="1036078962"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -6600,11 +6600,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="335254521"/>
-        <c:axId val="308270833"/>
+        <c:axId val="433837830"/>
+        <c:axId val="1759754851"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="335254521"/>
+        <c:axId val="433837830"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6646,10 +6646,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308270833"/>
+        <c:crossAx val="1759754851"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="308270833"/>
+        <c:axId val="1759754851"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6718,7 +6718,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335254521"/>
+        <c:crossAx val="433837830"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -8379,11 +8379,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2123368642"/>
-        <c:axId val="2145974905"/>
+        <c:axId val="828842974"/>
+        <c:axId val="1695398508"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2123368642"/>
+        <c:axId val="828842974"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8425,10 +8425,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2145974905"/>
+        <c:crossAx val="1695398508"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2145974905"/>
+        <c:axId val="1695398508"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8497,7 +8497,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123368642"/>
+        <c:crossAx val="828842974"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -8957,11 +8957,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="478586247"/>
-        <c:axId val="1199017157"/>
+        <c:axId val="1989437672"/>
+        <c:axId val="2037388751"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="478586247"/>
+        <c:axId val="1989437672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9003,10 +9003,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1199017157"/>
+        <c:crossAx val="2037388751"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1199017157"/>
+        <c:axId val="2037388751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9075,7 +9075,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478586247"/>
+        <c:crossAx val="1989437672"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -10003,11 +10003,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1873743996"/>
-        <c:axId val="848960718"/>
+        <c:axId val="703879874"/>
+        <c:axId val="2113393438"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1873743996"/>
+        <c:axId val="703879874"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10049,10 +10049,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="848960718"/>
+        <c:crossAx val="2113393438"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="848960718"/>
+        <c:axId val="2113393438"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10121,7 +10121,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1873743996"/>
+        <c:crossAx val="703879874"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -11782,11 +11782,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1908775662"/>
-        <c:axId val="1747676330"/>
+        <c:axId val="993819757"/>
+        <c:axId val="409047817"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1908775662"/>
+        <c:axId val="993819757"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11828,10 +11828,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1747676330"/>
+        <c:crossAx val="409047817"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1747676330"/>
+        <c:axId val="409047817"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11900,7 +11900,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1908775662"/>
+        <c:crossAx val="993819757"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -12088,7 +12088,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 9" title="Chart"/>
+        <xdr:cNvPr id="8" name="Chart 8" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12168,7 +12168,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 8" title="Chart"/>
+        <xdr:cNvPr id="9" name="Chart 9" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -16789,7 +16789,7 @@
       <c r="V21" s="6">
         <v>1.0</v>
       </c>
-      <c r="W21" s="9">
+      <c r="W21" s="11">
         <v>1.0</v>
       </c>
       <c r="X21" s="6">
@@ -16983,7 +16983,7 @@
       <c r="V22" s="6">
         <v>5.0</v>
       </c>
-      <c r="W22" s="9">
+      <c r="W22" s="11">
         <v>7.0</v>
       </c>
       <c r="X22" s="6">
@@ -17165,7 +17165,7 @@
       <c r="R23" s="6">
         <v>16.0</v>
       </c>
-      <c r="S23" s="10">
+      <c r="S23" s="12">
         <v>16.0</v>
       </c>
       <c r="T23" s="6">
@@ -17177,7 +17177,7 @@
       <c r="V23" s="6">
         <v>31.0</v>
       </c>
-      <c r="W23" s="9">
+      <c r="W23" s="11">
         <v>33.0</v>
       </c>
       <c r="X23" s="6">
@@ -17359,7 +17359,7 @@
       <c r="R24" s="6">
         <v>42.0</v>
       </c>
-      <c r="S24" s="10">
+      <c r="S24" s="12">
         <v>56.0</v>
       </c>
       <c r="T24" s="6">
@@ -17371,7 +17371,7 @@
       <c r="V24" s="6">
         <v>152.0</v>
       </c>
-      <c r="W24" s="9">
+      <c r="W24" s="11">
         <v>164.0</v>
       </c>
       <c r="X24" s="6">
@@ -17825,7 +17825,7 @@
       <c r="V26" s="6">
         <v>6.0</v>
       </c>
-      <c r="W26" s="9">
+      <c r="W26" s="11">
         <v>6.0</v>
       </c>
       <c r="X26" s="6">
@@ -17954,10 +17954,10 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C27" s="6">
         <v>0.0</v>
@@ -18019,7 +18019,7 @@
       <c r="V27" s="6">
         <v>6.0</v>
       </c>
-      <c r="W27" s="9">
+      <c r="W27" s="11">
         <v>10.0</v>
       </c>
       <c r="X27" s="6">
@@ -18148,10 +18148,10 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" s="6">
         <v>0.0</v>
@@ -18213,7 +18213,7 @@
       <c r="V28" s="6">
         <v>7.0</v>
       </c>
-      <c r="W28" s="9">
+      <c r="W28" s="11">
         <v>7.0</v>
       </c>
       <c r="X28" s="6">
@@ -18602,10 +18602,10 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C30" s="6">
         <v>0.0</v>
@@ -18796,10 +18796,10 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C31" s="6">
         <v>0.0</v>
@@ -18990,10 +18990,10 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" s="6">
         <v>0.0</v>
@@ -19184,10 +19184,10 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C33" s="6">
         <v>0.0</v>
@@ -28239,10 +28239,10 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="6">
         <v>0.0</v>
@@ -28314,10 +28314,10 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C28" s="6">
         <v>0.0</v>
@@ -28483,10 +28483,10 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C30" s="6">
         <v>0.0</v>
@@ -28558,10 +28558,10 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31" s="6">
         <v>0.0</v>
@@ -28633,10 +28633,10 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C32" s="6">
         <v>0.0</v>
@@ -28708,10 +28708,10 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C33" s="6">
         <v>0.0</v>
@@ -28877,7 +28877,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{5804EDD8-8BCD-4F0F-8CB9-F8433076EEA7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{004F9F6B-FE3C-405D-AAB0-B0B5C010EFC8}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$S$34"/>
     </customSheetView>
   </customSheetViews>
@@ -28955,8 +28955,8 @@
       <c r="Q1" s="2">
         <v>43905.0</v>
       </c>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -29434,26 +29434,26 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="12"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
@@ -30373,10 +30373,10 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="6">
         <v>0.0</v>
@@ -30426,10 +30426,10 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C28" s="6">
         <v>0.0</v>
@@ -30567,10 +30567,10 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C30" s="6">
         <v>0.0</v>
@@ -30620,10 +30620,10 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31" s="6">
         <v>0.0</v>
@@ -30673,10 +30673,10 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C32" s="6">
         <v>0.0</v>
@@ -30726,10 +30726,10 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C33" s="6">
         <v>0.0</v>
@@ -37636,10 +37636,10 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C27" s="6">
         <v>0.0</v>
@@ -37895,10 +37895,10 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" s="6">
         <v>0.0</v>
@@ -38414,10 +38414,10 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C30" s="6">
         <v>0.0</v>
@@ -38673,10 +38673,10 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C31" s="6">
         <v>0.0</v>
@@ -38932,10 +38932,10 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" s="6">
         <v>0.0</v>
@@ -39191,10 +39191,10 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C33" s="6">
         <v>0.0</v>
@@ -41694,119 +41694,119 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AK10" s="12">
+      <c r="AK10" s="10">
         <f t="shared" ref="AK10:BM10" si="4">IF(ISBLANK(AK1),IFERROR(1/0),(SUM(AK3:AK9)))</f>
         <v>4</v>
       </c>
-      <c r="AL10" s="12">
+      <c r="AL10" s="10">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="AM10" s="12">
+      <c r="AM10" s="10">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AN10" s="12">
+      <c r="AN10" s="10">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AO10" s="12">
+      <c r="AO10" s="10">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="AP10" s="12">
+      <c r="AP10" s="10">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="AQ10" s="12">
+      <c r="AQ10" s="10">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="AR10" s="12">
+      <c r="AR10" s="10">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="AS10" s="12">
+      <c r="AS10" s="10">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="AT10" s="12">
+      <c r="AT10" s="10">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="AU10" s="12">
+      <c r="AU10" s="10">
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
-      <c r="AV10" s="12">
+      <c r="AV10" s="10">
         <f t="shared" si="4"/>
         <v>73</v>
       </c>
-      <c r="AW10" s="12">
+      <c r="AW10" s="10">
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
-      <c r="AX10" s="12">
+      <c r="AX10" s="10">
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="AY10" s="12">
+      <c r="AY10" s="10">
         <f t="shared" si="4"/>
         <v>123</v>
       </c>
-      <c r="AZ10" s="12">
+      <c r="AZ10" s="10">
         <f t="shared" si="4"/>
         <v>143</v>
       </c>
-      <c r="BA10" s="12">
+      <c r="BA10" s="10">
         <f t="shared" si="4"/>
         <v>169</v>
       </c>
-      <c r="BB10" s="12">
+      <c r="BB10" s="10">
         <f t="shared" si="4"/>
         <v>193</v>
       </c>
-      <c r="BC10" s="12">
+      <c r="BC10" s="10">
         <f t="shared" si="4"/>
         <v>216</v>
       </c>
-      <c r="BD10" s="12">
+      <c r="BD10" s="10">
         <f t="shared" si="4"/>
         <v>241</v>
       </c>
-      <c r="BE10" s="12">
+      <c r="BE10" s="10">
         <f t="shared" si="4"/>
         <v>249</v>
       </c>
-      <c r="BF10" s="12">
+      <c r="BF10" s="10">
         <f t="shared" si="4"/>
         <v>260</v>
       </c>
-      <c r="BG10" s="12">
+      <c r="BG10" s="10">
         <f t="shared" si="4"/>
         <v>281</v>
       </c>
-      <c r="BH10" s="12">
+      <c r="BH10" s="10">
         <f t="shared" si="4"/>
         <v>323</v>
       </c>
-      <c r="BI10" s="12">
+      <c r="BI10" s="10">
         <f t="shared" si="4"/>
         <v>369</v>
       </c>
-      <c r="BJ10" s="12">
+      <c r="BJ10" s="10">
         <f t="shared" si="4"/>
         <v>415</v>
       </c>
-      <c r="BK10" s="12">
+      <c r="BK10" s="10">
         <f t="shared" si="4"/>
         <v>452</v>
       </c>
-      <c r="BL10" s="12">
+      <c r="BL10" s="10">
         <f t="shared" si="4"/>
         <v>490</v>
       </c>
-      <c r="BM10" s="12" t="str">
+      <c r="BM10" s="10" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -45062,10 +45062,10 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C27" s="6">
         <v>0.0</v>
@@ -45257,10 +45257,10 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" s="6">
         <v>0.0</v>
@@ -45712,10 +45712,10 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C30" s="6">
         <v>0.0</v>
@@ -45907,10 +45907,10 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C31" s="6">
         <v>0.0</v>
@@ -46102,10 +46102,10 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" s="6">
         <v>0.0</v>
@@ -46297,10 +46297,10 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C33" s="6">
         <v>0.0</v>
@@ -53522,10 +53522,10 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C27" s="6">
         <v>0.0</v>
@@ -53781,10 +53781,10 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" s="6">
         <v>0.0</v>
@@ -54300,10 +54300,10 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C30" s="6">
         <v>0.0</v>
@@ -54559,10 +54559,10 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C31" s="6">
         <v>0.0</v>
@@ -54818,10 +54818,10 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" s="6">
         <v>0.0</v>
@@ -55077,10 +55077,10 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C33" s="6">
         <v>0.0</v>
@@ -56335,7 +56335,7 @@
     </row>
     <row r="25">
       <c r="A25" s="37" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C25" s="7">
         <f>A54</f>
@@ -56358,7 +56358,7 @@
         <v>1228</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E26" s="7">
         <f>A79</f>
@@ -56375,7 +56375,7 @@
         <v>1337</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E27" s="7">
         <f>A95</f>
@@ -56401,7 +56401,7 @@
         <v>1146</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E29" s="7">
         <f>A27</f>
@@ -56417,7 +56417,7 @@
         <v>616</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E30" s="7">
         <f>A35</f>
@@ -56433,7 +56433,7 @@
         <v>257</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E31" s="7">
         <f>A43</f>
@@ -56450,7 +56450,7 @@
         <v>238</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E32" s="7">
         <f>A47</f>
@@ -56459,7 +56459,7 @@
     </row>
     <row r="33">
       <c r="A33" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
@@ -56504,7 +56504,7 @@
     </row>
     <row r="41">
       <c r="A41" s="37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42">
@@ -56524,7 +56524,7 @@
     </row>
     <row r="45">
       <c r="A45" s="37" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46">
@@ -56684,7 +56684,7 @@
     </row>
     <row r="77">
       <c r="A77" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78">
@@ -56764,7 +56764,7 @@
     </row>
     <row r="93">
       <c r="A93" s="37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94">
